--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
@@ -825,381 +825,755 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>make the best of one's way</t>
+          <t>hard and fast</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>前往</t>
+          <t>不能变通的、不容更改的</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>except for</t>
+          <t>make up one's mind</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>除了</t>
+          <t>下定决心</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>that is to say</t>
+          <t>dive into...</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>那就是说、换言之</t>
+          <t>潜入...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hear of</t>
+          <t>now and then</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>听说</t>
+          <t>有时、偶尔</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>throw oneself into</t>
+          <t>now or never</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>投身于</t>
+          <t>要么现在，要么别做、机不可失</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>concern oneself about</t>
+          <t>pounce on sb</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>担心</t>
+          <t>扑向某人</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>be otherwise engaged</t>
+          <t>look on</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>另外有约、另外有事</t>
+          <t>袖手旁观、在一看着</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>see for oneself</t>
+          <t>tell on/upon sb</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>亲自去看</t>
+          <t>告发某人、说某人的坏话</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>impress sth upon sb</t>
+          <t>out of breath</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>强调</t>
+          <t>喘不过气</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>get hold of</t>
+          <t>make a dive at sb</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>得到</t>
+          <t>扑向某人</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>select sth from sth</t>
+          <t>be thought of as</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>从...中选择、从...挑选</t>
+          <t>被认为是</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lie low</t>
+          <t>judge from...</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>躲藏、不露面</t>
+          <t>从...来看、根据...判断</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>be in the habit of doing sth</t>
+          <t>add to...</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>有做某事的习惯</t>
+          <t>增加</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bring sth round</t>
+          <t>drive sb out of one's mind</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>把...带过来</t>
+          <t>使某人发疯、失去理智</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>suspect sb of doing sth</t>
+          <t>frown at sb</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>怀疑某人做某事</t>
+          <t>对某人皱眉</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>at an end</t>
+          <t>slip away</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>逃走、悄悄溜走</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day03</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>《Great Expectations》</t>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>leave...behind</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>把...丢了</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>make the best of one's way</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>前往</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>except for</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>除了</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>that is to say</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>那就是说、换言之</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>hear of</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>听说</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>throw oneself into</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>投身于</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>concern oneself about</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>担心</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>be otherwise engaged</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>另外有约、另外有事</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>see for oneself</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>亲自去看</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>impress sth upon sb</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>强调</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>select sth from sth</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>从...中选择、从...挑选</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>lie low</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>躲藏、不露面</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>be in the habit of doing sth</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>有做某事的习惯</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>bring sth round</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>把...带过来</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>suspect sb of doing sth</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>怀疑某人做某事</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>at an end</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>rely on</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>依赖</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Day46</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>《Great Expectations》</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
       </c>
     </row>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,6 +1577,116 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>简而言之、总之</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>press sb for sth</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>极力劝说、催促某人某物</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>hold on to</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>守住、保住</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>under one's breath</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>低声地、小声地</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>catch my attention</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>吸引我的注意</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,17 +1206,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>make the best of one's way</t>
+          <t>hear of</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>前往</t>
+          <t>听说、得知</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,17 +1228,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>except for</t>
+          <t>make nothing of</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>除了</t>
+          <t>不理解</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1250,17 +1250,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>that is to say</t>
+          <t>all sorts of</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>那就是说、换言之</t>
+          <t>各种各样的</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1272,17 +1272,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hear of</t>
+          <t>go upstairs</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>听说</t>
+          <t>上楼</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1294,17 +1294,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>throw oneself into</t>
+          <t>call out to sb</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>投身于</t>
+          <t>对某人呼喊、向某人大叫</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1316,17 +1316,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>concern oneself about</t>
+          <t>go downstairs</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>担心</t>
+          <t>下楼</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1338,17 +1338,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>be otherwise engaged</t>
+          <t>be apprenticed to</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>另外有约、另外有事</t>
+          <t>拜师于、当...的学徒</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1360,17 +1360,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>see for oneself</t>
+          <t>to and fro</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>亲自去看</t>
+          <t>来回地、往返地</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1382,17 +1382,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>impress sth upon sb</t>
+          <t>die of</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>强调</t>
+          <t>死于、因...死</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day04</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1404,17 +1404,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>get hold of</t>
+          <t>occur to sb</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>得到</t>
+          <t>被想到、出现在头脑中</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1426,17 +1426,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>select sth from sth</t>
+          <t>put...away</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>从...中选择、从...挑选</t>
+          <t>将....收起、积攒</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1448,17 +1448,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>lie low</t>
+          <t>alll the while</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>躲藏、不露面</t>
+          <t>一直、始终</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1470,17 +1470,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>be in the habit of doing sth</t>
+          <t>have difficulty doing</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>有做某事的习惯</t>
+          <t>做某事很困难</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1492,17 +1492,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bring sth round</t>
+          <t>all at once</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>把...带过来</t>
+          <t>同时</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1514,17 +1514,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>suspect sb of doing sth</t>
+          <t>here and there</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>怀疑某人做某事</t>
+          <t>到处、在各处</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1536,17 +1536,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>at an end</t>
+          <t>take sth away</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>带走某物、拿走某物</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1558,17 +1558,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>rely on</t>
+          <t>similarity between A and B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>依赖</t>
+          <t>A和B之间的相似性</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1580,17 +1580,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>in short</t>
+          <t>think of sb as sth/sb</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>简而言之、总之</t>
+          <t>把...视为；把.....看作</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day05</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1602,17 +1602,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>press sb for sth</t>
+          <t>make the best of one's way</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>极力劝说、催促某人某物</t>
+          <t>前往</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day45</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hold on to</t>
+          <t>except for</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>守住、保住</t>
+          <t>除了</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day45</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1646,17 +1646,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>under one's breath</t>
+          <t>that is to say</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>低声地、小声地</t>
+          <t>那就是说、换言之</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day45</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1668,20 +1668,416 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>hear of</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>听说</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>throw oneself into</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>投身于</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>concern oneself about</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>担心</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>be otherwise engaged</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>另外有约、另外有事</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>see for oneself</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>亲自去看</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>impress sth upon sb</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>强调</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>select sth from sth</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>从...中选择、从...挑选</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>lie low</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>躲藏、不露面</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>be in the habit of doing sth</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>有做某事的习惯</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>bring sth round</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>把...带过来</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>suspect sb of doing sth</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>怀疑某人做某事</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>at an end</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rely on</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>简而言之、总之</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>press sb for sth</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>极力劝说、催促某人某物</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>hold on to</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>守住、保住</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>under one's breath</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>低声地、小声地</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>catch my attention</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>吸引我的注意</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Day47</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1602,17 +1602,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>make the best of one's way</t>
+          <t>be given to</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>前往</t>
+          <t>经常做、习惯于</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day06</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>except for</t>
+          <t>in a favor of</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>除了</t>
+          <t>喜欢</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day06</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1646,17 +1646,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>that is to say</t>
+          <t>rise up</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>那就是说、换言之</t>
+          <t>反抗</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day06</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1668,17 +1668,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hear of</t>
+          <t>look up to sb</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>听说</t>
+          <t>敬仰、尊重</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day06</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1690,17 +1690,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>throw oneself into</t>
+          <t>lead a life</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>投身于</t>
+          <t>过某种生活</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day06</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1712,17 +1712,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>concern oneself about</t>
+          <t>be beside oneself</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>担心</t>
+          <t>无法控制自己</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day06</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>be otherwise engaged</t>
+          <t>on earth</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>另外有约、另外有事</t>
+          <t>究竟、到底</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day06</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1756,17 +1756,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>see for oneself</t>
+          <t>stand open</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>亲自去看</t>
+          <t>敝开着</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1778,17 +1778,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>impress sth upon sb</t>
+          <t>what is wrose</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>强调</t>
+          <t>更糟糕的是</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1800,17 +1800,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>get hold of</t>
+          <t>after you</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>得到</t>
+          <t>你先请</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1822,17 +1822,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>select sth from sth</t>
+          <t>make out</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>从...中选择、从...挑选</t>
+          <t>（勉强）看出、辨认出</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1844,17 +1844,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lie low</t>
+          <t>be in place</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>躲藏、不露面</t>
+          <t>准备妥当</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1866,17 +1866,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>be in the habit of doing sth</t>
+          <t>sunken eyes</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>有做某事的习惯</t>
+          <t>凹陷的双眼</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1888,17 +1888,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bring sth round</t>
+          <t>skin and bone</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>把...带过来</t>
+          <t>瘦得皮包骨、瘦骨嶙峋</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1910,17 +1910,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>suspect sb of doing sth</t>
+          <t>take note of</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>怀疑某人做某事</t>
+          <t>注意到</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1932,17 +1932,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>at an end</t>
+          <t>regret to do sth</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>很遗憾地做某事</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day07</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1954,17 +1954,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>rely on</t>
+          <t>get into trouble with sb</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>依赖</t>
+          <t>与某人产生摩擦</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day08</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1976,17 +1976,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>in short</t>
+          <t>glance at sb</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>简而言之、总之</t>
+          <t>瞥了一眼某人</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day08</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1998,17 +1998,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>press sb for sth</t>
+          <t>be absent from</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>极力劝说、催促某人某物</t>
+          <t>缺席、不在</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day08</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2020,17 +2020,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hold on to</t>
+          <t>bend down</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>守住、保住</t>
+          <t>弯下</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day08</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2042,17 +2042,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>under one's breath</t>
+          <t>except for sth</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>低声地、小声地</t>
+          <t>除...之外</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day08</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2064,20 +2064,702 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>drop into...</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>陷入...</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Day08</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>lift up</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>鼓舞</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Day08</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>bend over</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>弯下腰</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Day08</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>within and without</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>里里外外、内部和外部</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Day08</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>make the best of one's way</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>前往</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>except for</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>除了</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>that is to say</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>那就是说、换言之</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>hear of</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>听说</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>throw oneself into</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>投身于</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>concern oneself about</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>担心</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>be otherwise engaged</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>另外有约、另外有事</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>see for oneself</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>亲自去看</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>impress sth upon sb</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>强调</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>select sth from sth</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>从...中选择、从...挑选</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>lie low</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>躲藏、不露面</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>be in the habit of doing sth</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>有做某事的习惯</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>bring sth round</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>把...带过来</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>suspect sb of doing sth</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>怀疑某人做某事</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>at an end</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rely on</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>简而言之、总之</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>press sb for sth</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>极力劝说、催促某人某物</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>hold on to</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>守住、保住</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>under one's breath</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>低声地、小声地</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>catch my attention</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>吸引我的注意</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Day47</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>rest on sth</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>（目光）落在...上</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>pull sth back</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>拉回、缩回</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>break off</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>停顿、中断</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>at rest</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>安心</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>a degree of...</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>程度的...</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>be on friendly terms with sb</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>与某人关系友好</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2765,6 +2765,204 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>drop on one's knees</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>跪下</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>press one's hand</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>紧握某人的手</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>in the hope that</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>抱着...的希望</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>bend over</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>俯身</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>cut sb off from sth</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>使...与外界隔绝</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>look upon sb</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>（以某种方式）看（对）待某人</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>promise to be</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>预计会、预示会</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>send for sb</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>请某人来帮忙</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>lay sth waste</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>完全摧毁、使荒芜</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,17 +2152,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>make the best of one's way</t>
+          <t>know nothing of....</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>前往</t>
+          <t>对...一无所知</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2174,17 +2174,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>except for</t>
+          <t>look about sb</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>除了</t>
+          <t>环顾某人</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2196,17 +2196,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>that is to say</t>
+          <t>in disgrace</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>那就是说、换言之</t>
+          <t>失宠的、不讨人喜欢的</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hear of</t>
+          <t>hit upon</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>听说</t>
+          <t>突然想到</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2240,17 +2240,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>throw oneself into</t>
+          <t>a sense of</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>投身于</t>
+          <t>...的感觉</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2262,17 +2262,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>concern oneself about</t>
+          <t>hold sth back</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>担心</t>
+          <t>抑制.、压制...</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2284,17 +2284,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>be otherwise engaged</t>
+          <t>get rid of..</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>另外有约、另外有事</t>
+          <t>去掉...、除掉...、摆脱...</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2306,17 +2306,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>see for oneself</t>
+          <t>in spirits</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>亲自去看</t>
+          <t>兴致勃勃</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2328,17 +2328,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>impress sth upon sb</t>
+          <t>hold on</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>强调</t>
+          <t>坚持</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2350,17 +2350,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>get hold of</t>
+          <t>spread out</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>得到</t>
+          <t>伸展、展开</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2372,17 +2372,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>select sth from sth</t>
+          <t>look round</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>从...中选择、从...挑选</t>
+          <t>四处环顾</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2394,17 +2394,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>lie low</t>
+          <t>out of one's view</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>躲藏、不露面</t>
+          <t>离开某人的视线</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2416,17 +2416,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>be in the habit of doing sth</t>
+          <t>run from...</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>有做某事的习惯</t>
+          <t>逃避...、远离...</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2438,17 +2438,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bring sth round</t>
+          <t>run toward...</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>把...带过来</t>
+          <t>跑向...、朝...跑去</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,17 +2460,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>suspect sb of doing sth</t>
+          <t>nothing less than</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>怀疑某人做某事</t>
+          <t>完全</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2482,17 +2482,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>at an end</t>
+          <t>bring sb round</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>使某人清醒过来、使某人醒悟过来</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2504,17 +2504,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>rely on</t>
+          <t>come to oneself</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>依赖</t>
+          <t>清醒过来、醒悟过来</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,17 +2526,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>in short</t>
+          <t>look down upon sb</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>简而言之、总之</t>
+          <t>看不起某人、轻视某人</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day09</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2548,17 +2548,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>press sb for sth</t>
+          <t>set off</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>极力劝说、催促某人某物</t>
+          <t>出发、动身</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day10</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2570,17 +2570,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hold on to</t>
+          <t>fall into a habit of</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>守住、保住</t>
+          <t>养成…的习惯</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2592,17 +2592,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>under one's breath</t>
+          <t>at…length</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>低声地、小声地</t>
+          <t>详尽地</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day10</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2614,17 +2614,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>catch my attention</t>
+          <t>all of a sudden</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>吸引我的注意</t>
+          <t>突然</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day10</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2636,17 +2636,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rest on sth</t>
+          <t>not so… as…</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>（目光）落在...上</t>
+          <t>不如...这么...、不像...那样….</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day10</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2658,17 +2658,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>pull sth back</t>
+          <t>be glad of</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>拉回、缩回</t>
+          <t>为某事感激、庆幸有某物</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day10</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2680,17 +2680,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>break off</t>
+          <t>wear away</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>停顿、中断</t>
+          <t>消逝、衰退</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2702,17 +2702,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>at rest</t>
+          <t>in confusion</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>安心</t>
+          <t>处于混乱状态</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2724,17 +2724,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>a degree of...</t>
+          <t>cover sth with sth</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>程度的...</t>
+          <t>用某物覆盖住某物</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2746,17 +2746,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>be on friendly terms with sb</t>
+          <t>prepare sth for sth</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>与某人关系友好</t>
+          <t>为某物准备某物</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2768,17 +2768,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>drop on one's knees</t>
+          <t>on occasion</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>跪下</t>
+          <t>有时、间或、偶尔</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2790,17 +2790,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>press one's hand</t>
+          <t>speak of</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>紧握某人的手</t>
+          <t>谈及、谈到</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>in the hope that</t>
+          <t>make no further effort to</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>抱着...的希望</t>
+          <t>不再努力做...</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2834,17 +2834,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bend over</t>
+          <t>a heap of ruin</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>俯身</t>
+          <t>一堆废墟</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2856,17 +2856,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>cut sb off from sth</t>
+          <t>in a state</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>使...与外界隔绝</t>
+          <t>处于...状态</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2878,17 +2878,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>look upon sb</t>
+          <t>fix sth for sb</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>（以某种方式）看（对）待某人</t>
+          <t>为某人安排好某事</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day11</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2900,17 +2900,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>promise to be</t>
+          <t>be under a spell</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>预计会、预示会</t>
+          <t>中了魔法</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day12</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2922,17 +2922,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>send for sb</t>
+          <t>wheel round</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>请某人来帮忙</t>
+          <t>快速转身</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day12</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2944,20 +2944,1648 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>hit out at sb</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>打（某人）</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>pull off</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>（通常指迅速地）脱下（衣服）</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>at once</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>同时</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>come at sb</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>扑向（某人）</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>do for sb</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>杀死、严重伤害（某人）</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>on one's knees</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>跪着、跪下</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>be apprenticed to sb</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>当某人的学徒</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>in the hope that</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>抱着….的希望</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>on the contrary</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>恰恰相反</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>talk down to sb</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>以高人一等的口气对（某人）说话</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>look on</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>旁观</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>in regard to</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>关于、至于</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>far from</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>远非…、完全不...</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ask after sb</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>问候、问好</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>make a call on sb</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>拜访（某人）</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>fix one's eyes upon sb./ sth.</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>盯着某人/某物看</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>look round for…</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>四处寻找…</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>manage to speak/say/smile/laugh etc</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>免强说几句；勉强笑一笑</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>break into...</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>突然开始…</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>keep up with...</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>赶上...</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>set aside</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>留出</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>lean back</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>往后靠</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>make the most of...</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>充分利用…</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>turn to sb. for help</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>向某人寻求帮助</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>combine…with...</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>把...和…结合起来</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>let sb into one's secret</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>让…知道某人的秘密、告诉…某人的秘密</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>bind sb to secrecy</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>使某人严守秘密、使某人誓守秘密</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>be disgusted with…</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>厌恶…、讨厌…</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>once for all</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>完全地、彻底地、一劳永逸地</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>settle down</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>定居、安顿下来</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>within reach</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>触手可及的、可以触及的、够得着的</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>keep company with sb</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>与…作伴</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>on one's account</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>为了某人</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>win sb over</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>把某人争取过来、赢得某人</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>gain sb over</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>把某人争取过来、拉拢某人</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>be worth doing</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>值得做某事</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>reason with sb</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>和某人讲道理、劝说某人</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>get beyond sb</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>超过某人</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>make the best of one's way</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>前往</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>except for</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>除了</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>that is to say</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>那就是说、换言之</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>hear of</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>听说</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>throw oneself into</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>投身于</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>concern oneself about</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>担心</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>be otherwise engaged</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>另外有约、另外有事</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>see for oneself</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>亲自去看</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>impress sth upon sb</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>强调</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Day45</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>select sth from sth</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>从...中选择、从...挑选</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>lie low</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>躲藏、不露面</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>be in the habit of doing sth</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>有做某事的习惯</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>bring sth round</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>把...带过来</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>suspect sb of doing sth</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>怀疑某人做某事</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>at an end</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>rely on</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Day46</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>简而言之、总之</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>press sb for sth</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>极力劝说、催促某人某物</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>hold on to</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>守住、保住</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>under one's breath</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>低声地、小声地</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>catch my attention</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>吸引我的注意</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Day47</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>rest on sth</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>（目光）落在...上</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>pull sth back</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>拉回、缩回</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>break off</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>停顿、中断</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>at rest</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>安心</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>a degree of...</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>程度的...</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>be on friendly terms with sb</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>与某人关系友好</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Day48</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>drop on one's knees</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>跪下</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>press one's hand</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>紧握某人的手</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>in the hope that</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>抱着...的希望</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>bend over</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>俯身</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>cut sb off from sth</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>使...与外界隔绝</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>look upon sb</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>（以某种方式）看（对）待某人</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>promise to be</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>预计会、预示会</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>send for sb</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>请某人来帮忙</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Day49</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>lay sth waste</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>完全摧毁、使荒芜</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Day49</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day45(10)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day46(7)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day46(7)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day46(7)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day46(7)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day46(7)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day46(7)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day46(7)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day47(5)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day47(5)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day47(5)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day47(5)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day47(5)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day48(6)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day48(6)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day48(6)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day48(6)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day48(6)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day48(6)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day49(9)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3780,17 +3780,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>make the best of one's way</t>
+          <t>fall in love with</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>前往</t>
+          <t>爱上</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3802,17 +3802,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>except for</t>
+          <t>keep company with sb.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>除了</t>
+          <t>陪伴某人</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3824,17 +3824,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>that is to say</t>
+          <t>become aware of</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>那就是说、换言之</t>
+          <t>发觉、知道</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3846,17 +3846,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>hear of</t>
+          <t>on the occasion of</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>听说</t>
+          <t>在（重要事件）之际</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3868,17 +3868,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>throw oneself into</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>投身于</t>
+          <t>将...收起、把…放回原处</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3890,17 +3890,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>concern oneself about</t>
+          <t>set sth aside</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>担心</t>
+          <t>把...放到一边（或搁到一边）</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3912,17 +3912,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>be otherwise engaged</t>
+          <t>carry out</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>另外有约、另外有事</t>
+          <t>履行、执行、落实</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3934,17 +3934,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>see for oneself</t>
+          <t>stand in sb's way</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>亲自去看</t>
+          <t>阻止某人</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3956,17 +3956,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>impress sth upon sb</t>
+          <t>glance at</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>强调</t>
+          <t>浏览、粗略地看</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3978,17 +3978,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>get hold of</t>
+          <t>be lost in sth</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>得到</t>
+          <t>沉浸于、全神贯注</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Day45(10)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>select sth from sth</t>
+          <t>return to sth</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>从...中选择、从...挑选</t>
+          <t>再讨论、重新处理</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Day46(7)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4022,17 +4022,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>lie low</t>
+          <t>instruct sb to do</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>躲藏、不露面</t>
+          <t>命令某人做某事、指示某人做某事</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Day46(7)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4044,17 +4044,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>be in the habit of doing sth</t>
+          <t>communicate sth to sb</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>有做某事的习惯</t>
+          <t>与某人通、与某人交流信息</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Day46(7)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4066,17 +4066,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>bring sth round</t>
+          <t>come into</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>把...带过来</t>
+          <t>继承（遗产）</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Day46(7)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4088,17 +4088,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>suspect sb of doing sth</t>
+          <t>address sth to sb</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>怀疑某人做某事</t>
+          <t>向某人提出...</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Day46(7)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4110,17 +4110,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>at an end</t>
+          <t>be forbidden to do</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>被禁止做某事</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Day46(7)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4132,17 +4132,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>rely on</t>
+          <t>make an inquiry</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>依赖</t>
+          <t>调查、打听</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Day46(7)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4154,17 +4154,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>in short</t>
+          <t>a sum of money</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>简而言之、总之</t>
+          <t>一笔銭</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Day47(5)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4176,17 +4176,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>press sb for sth</t>
+          <t>take up</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>极力劝说、催促某人某物</t>
+          <t>接受（建议或能得到的东西）</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Day47(5)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4198,17 +4198,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hold on to</t>
+          <t>long for sth</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>守住、保住</t>
+          <t>渴望...</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Day47(5)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4220,17 +4220,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>under one's breath</t>
+          <t>have knowledge of</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>低声地、小声地</t>
+          <t>知道、了解</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Day47(5)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4242,17 +4242,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>catch my attention</t>
+          <t>be obliged to sb</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>吸引我的注意</t>
+          <t>感激某人</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Day47(5)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4264,17 +4264,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>rest on sth</t>
+          <t>come in</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>（目光）落在...上</t>
+          <t>有供应、可得到</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Day48(6)</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4286,17 +4286,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pull sth back</t>
+          <t>make compensation</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>拉回、缩回</t>
+          <t>补偿</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Day48(6)</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4308,17 +4308,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>break off</t>
+          <t>die away</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>停顿、中断</t>
+          <t>（声音）慢慢变弱、渐渐消失</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Day48(6)</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4330,17 +4330,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>at rest</t>
+          <t>regard...as</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>安心</t>
+          <t>把...看作</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Day48(6)</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4352,17 +4352,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>a degree of...</t>
+          <t>take on sth</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>程度的...</t>
+          <t>承担</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Day48(6)</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4374,17 +4374,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>be on friendly terms with sb</t>
+          <t>take leave of sb</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>与某人关系友好</t>
+          <t>向某人告别</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Day48(6)</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4396,17 +4396,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>drop on one's knees</t>
+          <t>a touch of</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>跪下</t>
+          <t>一点、少许</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4418,17 +4418,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>press one's hand</t>
+          <t>in the meanwhile</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>紧握某人的手</t>
+          <t>在此期间</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4440,17 +4440,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>in the hope that</t>
+          <t>take...to be sth</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>抱着...的希望</t>
+          <t>认为、把…看作</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4462,17 +4462,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>bend over</t>
+          <t>be parted from</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>俯身</t>
+          <t>和...分离</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4484,17 +4484,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>cut sb off from sth</t>
+          <t>take a turn</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>使...与外界隔绝</t>
+          <t>转一圈</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4506,17 +4506,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>look upon sb</t>
+          <t>for some reason or other</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>（以某种方式）看（对）待某人</t>
+          <t>由于某种原因</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4528,17 +4528,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>promise to be</t>
+          <t>put out</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>预计会、预示会</t>
+          <t>熄灭</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4550,17 +4550,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>send for sb</t>
+          <t>pay one's visit to sb</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>请某人来帮忙</t>
+          <t>拜访某人</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Day49(9)</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4572,20 +4572,5410 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>fall short of</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>达不到</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>out of place</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>不得体</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>on account of</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>由于，因为</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>take leave of...</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>向…告别</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>at  (one's）ease</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>无拘无束、自由自在</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>occur to sb.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>（主意或想法突然）浮现于脑中</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>be ashamed of...</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>对...感到羞耻、对...感到羞愧</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>break out</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>突然爆发</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>to tell the truth</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>老实说、说实话</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>at length</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>终于</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>rub off</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>使...磨擦掉</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>make a deep impression on sb</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>给某人留下了深刻的印象</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>address oneself to...</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>着手….、忙于...、投入...</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>不过、仅仅</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>throw up</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>放弃</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>fall back</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>后退</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>but for</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>倘若没有、要不是</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>once for all</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>仅此一次</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>be in good hands</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>正在妥善处理中</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>make an example of</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>用某人来杀一儆百</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>slip through sb's fingers</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>（机会或某人）被错过</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>not by any means</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>一点也不、绝不</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>paint sth over</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>用新的颜料覆盖...的画面（表面）</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>at sb's expense</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>由某人付钱、由某人负担费用</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>and so forth</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>等等</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>give sb credit for</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>为...而称赞某人</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>fall back</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>（因惊奇、恐惧等）后退、退却</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>take a fancy to sb / sth</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>爱上、喜欢上（常指没有明显原因）</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>at all events</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>不管是哪种情况、无论如何</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>come out of</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>从（坏的情况中）走出</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>provide for sb</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>供养、抚养</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>to the last degree</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>极度地、非常地</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>inability to do</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>无能做...、不能做...</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>lay stress on</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>强调、把重点放在...上</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>at a loss</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>不知所措、困惑</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>at heart</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>本质上、实际上</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>be devoted to sb</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>深愛看某人</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>直到</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>come out</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>显露</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>take advantage of sb</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>（不公正地）利用某人</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>in one's presence</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>在...面前、有...在场</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>strike in</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>插嘴</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>break sth off</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>（突然）终止、結束</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>piece sth out</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>把...串连起来</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>come upon sb</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>（某种感觉）向某人袭来</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>buy up</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>大量买进、全部买下</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>on one's own account</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>靠自己、为自己</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>in keep with</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>与…一致</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>correspond to sth</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>与…相一致</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>get on famously</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>相处极好</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>go to church</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>做礼拜</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>apply oneself to sth</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>努力、专心致志于某事</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>stick to sth</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>坚持做某事</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>fall to sth</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>开始做某事</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>remove...from...</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>把...从...移开</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>in suspense</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>在悬念中、悬而未决</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>take no notice of...</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>不理会...</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>in turn</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>依次</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>break up</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>make the best use of...</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>充分利用...</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>tear down</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>摧毀、拆卸</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>take possession of...</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>占有…、占领</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>none the less</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>依然</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>be content with...</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>对...感到满意</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>send for</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>派人去请</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Iure sb on</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>引诱某人</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>refer to</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>涉及、提到</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>with reluctance</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>不情愿地</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>more than enough</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>太、过于</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>talk down to sb</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>用高人一等的口气对某人说话</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>behave with sb</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>与某人相处的方式</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>go through one's mind</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>浮现在某人脑海里</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>be accustomed to doing</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>习惯做某事</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>no better than</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>几乎等于、实际上和...一样</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>fall into sth</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>开始做某事</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>care to do</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>想要做某事</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>high up</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>位居高职</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>treasure up</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>铭记、珍藏</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>下定决心</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>look into</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>调查、了解</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>refer to</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>查阅、参考</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>make an appointment</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>约定、预约</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>look in the face</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>正视...、直视...</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>look into</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>调查、审查</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>stare sb down</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>盯得某人不敢对视</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>come to sth</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>总计为、加起来是</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>establish a reputation</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>确立声誉</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>run into sth</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>遇到（困难等）</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>get on</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>（尤指中断后）继续做某事</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>depart this life</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>离开人世、去世、亡故</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>be conscious of</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>意识到</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>close in</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>（夜幕）降临</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>settle down</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>安定下来</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>come out of sth</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>从（坏的情况中）走出</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>by degrees</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>逐渐地、渐渐地</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>do sb an injustice</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>待...不公正、冤枉</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>仅仅、只不过</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>regardless of</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>不管、不顾</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>come of age</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>到达法定年龄、成年</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>a crowd of</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>一大堆、许多的</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>mark the occasion</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>庆祝这一特别时刻</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>take care to do sth</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>特意做某事</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>at a disadvantage</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>处于劣势</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>blow one's nose</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>擤鼻子</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>set sth aside</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>暂时不考虑</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>cast about for</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>苦苦思索、拼命寻找</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>get sth out of sb</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>从某人那里探听到，劝说某人说出</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>take sb into one's confidence</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>对某人吐露真情，把某人当成心腹</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>as to</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>至于、关于</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>coming of age</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>成年、成熟</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>hold back</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>抑制</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>do good to</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>对...有好处、对...有益</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>for certain</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>肯定地、确凿地</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>no doubt</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>无疑、必定</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>all sorts of</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>各种各样的</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>press...upon...</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>把...强加于...</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>put sb at a disadvantage</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>让某人处于劣势、使某人吃亏</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>the next day but one</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>第三天</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>at any rate</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>无论如何</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>take pleasure in</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>以...为乐、喜欢...</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>be tired of</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>厌倦</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>总之、简言之</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>take sb in</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>收留、留宿、收养</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>be at sb's command</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>听候某人的吩咐、服从某人的支配</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>be inseparable from sth</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>与某事不可分离、分不开的</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>keep out</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>不许入内、挡在外面</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>spread sth out</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>将...分散、将某物抛开（展开）</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>no sooner... than</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>— ...就...</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>attend to sb</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>关心某人、照顾某人</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>be unfaithful to</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>对...不忠</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>argument between A and B</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>A和B之间的争吵</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>speak to sb about sth</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>为某事数说某人</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>take sth (from sb)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>夺取、控制</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>be meant to do</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>理应发生、应该</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>throw away</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>浪费、白费、错过</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>have an effect on sb</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>对某人产生作用</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>day after day</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>一天又一天</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>make out</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>勉强看清</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>hold out</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>伸出</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>respond to sth</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>做出回应</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>explain oneself</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>为自己的行为作说明（或解释）</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>in the least</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>丝毫、一点儿</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>on the contrary</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>与此相反</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>keep off</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>不接近某人</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>mend one's way of life</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>改过自新</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>直到</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>have no intention of doing sth</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>无意做某事</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>make so bold as to do sth</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>斗胆（冒昧）做某事</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>flash on sb</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>突然意识到、猛然领悟</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>a flood of</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>大量、大批（的人或事物）</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>put away</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>积攒</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>one grain of</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>—丝、一点儿</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>rise up</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>高耸</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>not that</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>并非、并不是说</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>far from</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>绝不...、远非…、一点也不…</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>by comparison</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>比较起来、相比之下</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>hold to</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>坚持</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>be responsible for</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>对...负责</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>draw near</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>临近、靠近、快到了</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>be assured of</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>确信、保证</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ask for sb</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>要求见某人</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>bring oneself to do</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>使自己做...</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>give out</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>公布、宣布</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>take one's seat</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>就坐</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>put on trial</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>受审、经受考验</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>hold out both one's hands</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>伸出某人的双手</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>in return</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>作为回报</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>settle down to</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>开始认真对待、定下心来做</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>be chained to sth</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>受到某事的束缚</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>keep (sb) out of sth.</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>（使）坚持（避免或不卷入）</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>forget oneself</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>忘乎所以、行为（言谈）失态（不得体）</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>for good</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>永远、永久</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>by no means</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>决不、一点也不</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>win sb over</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>说服某人、把某人争取过来</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>take a room</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>定一个房间、租一个房间</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>have no hope of</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>对...毫无希望</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>be unknown to sb</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>不为某人所知的</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>be responsible for</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>应对...承担责任、对（尤指坏事）负责任</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>代表</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>on sb's account</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>为了某人的缘故</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>in safety</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>安全地</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>at length</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>最后、终于</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>burst in</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>闯进</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>beg one's pardon</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>请人原谅、向人道歉</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>put up</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>收起</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>on the spot</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>立即、马上</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>work to do sth.</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>争取做某事</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>link one's arm</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>挽住某人的格膊</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>to and fro</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>往返地、来回地</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>see sth out</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>坚持到某事结束</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>present oneself at</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>出现、到场</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>set off</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>出发、动身</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>take up</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>打断</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>be that as it may</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>就算这样</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>lead sb on</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>使误信、误导某人</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>for God's sake</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>看在上帝的份上</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>false and base</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>虚伪和卑鄙</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>do sb a service</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>帮某人的忙</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>without one's knowledge</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>在某人不知道的情况下</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>hold back from doing sth</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>抑制住做某事</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>in answer to</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>回应</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>for one's sake</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>为了...缘故、看在...份上</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>put aside</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>放在一边</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>blame...for...</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>因为...而责备...</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>in despair</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>绝望地</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>get sb out of one's thoughts</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>忘记某人</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>associate .. .with</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>把...和...联系起来</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Strike off</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>前进、出发</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>tire out</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>使疲惫</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>make the best of one's way</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>前往</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>except for</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>除了</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>that is to say</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>那就是说、换言之</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>hear of</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>听说</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>throw oneself into</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>投身于</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>concern oneself about</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>担心</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>be otherwise engaged</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>另外有约、另外有事</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>see for oneself</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>亲自去看</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>impress sth upon sb</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>强调</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>select sth from sth</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>从...中选择、从...挑选</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>lie low</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>躲藏、不露面</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>be in the habit of doing sth</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>有做某事的习惯</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>bring sth round</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>把...带过来</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>suspect sb of doing sth</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>怀疑某人做某事</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>at an end</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>rely on</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>简而言之、总之</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>press sb for sth</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>极力劝说、催促某人某物</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>hold on to</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>守住、保住</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>under one's breath</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>低声地、小声地</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>catch my attention</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>吸引我的注意</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>rest on sth</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>（目光）落在...上</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>pull sth back</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>拉回、缩回</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>break off</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>停顿、中断</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>at rest</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>安心</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>a degree of...</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>程度的...</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>be on friendly terms with sb</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>与某人关系友好</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>drop on one's knees</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>跪下</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>press one's hand</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>紧握某人的手</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>in the hope that</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>抱着...的希望</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>bend over</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>俯身</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>cut sb off from sth</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>使...与外界隔绝</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>look upon sb</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>（以某种方式）看（对）待某人</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>promise to be</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>预计会、预示会</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>send for sb</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>请某人来帮忙</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
           <t>lay sth waste</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B434" t="inlineStr">
         <is>
           <t>完全摧毁、使荒芜</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C434" t="inlineStr">
         <is>
           <t>Day49(9)</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D434" t="inlineStr">
         <is>
           <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>深愛看某人</t>
+          <t>深爱着某人</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9976,6 +9976,204 @@
         </is>
       </c>
       <c r="D434" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ease one's mind</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>使某人心安</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>close in</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>（敌人、夜、黑暗等）逼近</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>be suited to</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>适合</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>make one's way to</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>前往</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>hold down</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>控制某人的自由、使某人屈从</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>break out</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>爆发</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>take responsibility for</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>负责</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>speak of</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>谈到、谈及</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>set in</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>开始</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Day50(9)</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
         <is>
           <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10179,6 +10179,94 @@
         </is>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>be grateful for sth</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>对...感激</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Day51(4)</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>by all means</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>尽一切办法</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Day51(4)</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>have trouble with...</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>与某人产生纠纷</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Day51(4)</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>bring ... into one's mind</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>让某人想起...</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Day51(4)</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>挽住某人的格膊</t>
+          <t>挽住某人的胳膊</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D797"/>
+  <dimension ref="A1:D805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17967,6 +17967,182 @@
         </is>
       </c>
     </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>give birth</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>生孩子</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>take sb in</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>收留、留宿</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>set sb free</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>释放某人</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>for sb's sake</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>为了某人的缘故</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>keep sth down</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>抑制某事物的增长、使保持在低水平</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>break out</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>（不愉快之事）爆发、突然发生</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>establish a small branch-house</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>建立一个小的分公司</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>take charge of</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>掌管...</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Day53(8)</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -1976,12 +1976,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>go on（</t>
+          <t>go on</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>停顿后）继续说、接着讲</t>
+          <t>(停顿后）继续说、接着讲</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2042,12 +2042,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>maiden name（</t>
+          <t>maiden name</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>已婚女子的）娘家姓、婚前姓</t>
+          <t>(已婚女子的）娘家姓、婚前姓</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2086,12 +2086,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hunch one's shoulders（</t>
+          <t>hunch one's shoulders</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>因寒冷、焦虑等）耸起双肩</t>
+          <t>（因寒冷、焦虑等）耸起双肩</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2482,12 +2482,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>go on（</t>
+          <t>go on</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>短暂停顿后）继续说</t>
+          <t>（短暂停顿后）继续说</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>一笔銭</t>
+          <t>一笔钱</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -2548,12 +2548,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>go on（</t>
+          <t>go on</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>短暂停顿后）继续说</t>
+          <t>（短暂停顿后）继续说</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D805"/>
+  <dimension ref="A1:D813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18143,6 +18143,182 @@
         </is>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>in the shade</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>背阴处</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>set one's mind on sth</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>一心想某事</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>cast off</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>（船）解缆启航</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>run down</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>萎缩、衰减</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>lie by</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>roar out</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>大声地说</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>be under lock and key</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>被关着</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>not far out</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>几乎正确</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Day54(8)</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D813"/>
+  <dimension ref="A1:D820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18319,6 +18319,160 @@
         </is>
       </c>
     </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>look out for sth</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>努力寻找、注意寻找</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>come in</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>（潮水）上涨；涨潮</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>come ashore</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>上岸</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>put in for sth</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>正式要求、申请</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>on the whole</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>总的看来</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>settle to do sth</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>决定做某事</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>decide against sth</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>决定不...</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Day55(7)</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D820"/>
+  <dimension ref="A1:D827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18473,6 +18473,160 @@
         </is>
       </c>
     </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>ever and again</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>时常、常常</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Day5(7)</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>but for</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>若非、要不是</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Day5(7)</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>be merciful to</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>对...仁慈</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Day5(7)</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>be in debt</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>负债、欠钱</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Day5(7)</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>tell sb of sth</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>告诉某人某事</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Day5(7)</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>set about</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>着手做...、开始做...</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Day5(7)</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>in one's weak state</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>在某人身体虚弱的状态下</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Day5(7)</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D827"/>
+  <dimension ref="A1:D832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Day5(7)</t>
+          <t>Day56(7)</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Day5(7)</t>
+          <t>Day56(7)</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>Day5(7)</t>
+          <t>Day56(7)</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>Day5(7)</t>
+          <t>Day56(7)</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -18574,7 +18574,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>Day5(7)</t>
+          <t>Day56(7)</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>Day5(7)</t>
+          <t>Day56(7)</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -18618,10 +18618,120 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>Day5(7)</t>
+          <t>Day56(7)</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>become of</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>变成（怎么样）、遭遇 （如何）</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Day57(5)</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>go into</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>（详细）调查、讨论</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Day57(5)</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>in truth</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>实际上、事实上、说实在话、老实话</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Day57(5)</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>fall into</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>陷入（不 好的状态）</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Day57(5)</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>tear oneself away</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>忍痛离开、忍痛分手</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Day57(5)</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
         <is>
           <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D832"/>
+  <dimension ref="A1:D840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18737,6 +18737,182 @@
         </is>
       </c>
     </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>without delay</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>立即、毫不延迟地</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>be worthy of sb.</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>可与某人相媲美、配得上</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>carry sth. out</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>履行、实施、执行</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>turn out</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>最终结果是、最终成为</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>come to pass</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>发生、出现</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>long after</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>很久以后</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>fear to do sth.</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>害怕做某事</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>make sth. complete</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>使某物圆满</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Day58(8)</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D840"/>
+  <dimension ref="A1:D847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18913,6 +18913,160 @@
         </is>
       </c>
     </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>think better of sb</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>对...有更高的评价</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>put aside</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>存储（钱）</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>in full</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>全部地</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>take on sth</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>接受（工作）、承担责任</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>keep up a correspondence with sb</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>与某人保持通信</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>to perfection</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>完美地、恰到好处</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>sacred to the memory of</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>为纪念...专用的</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Day59(7)</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D847"/>
+  <dimension ref="A1:D853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19067,6 +19067,138 @@
         </is>
       </c>
     </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>go by</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>（时间）流逝</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Day60(6)</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>aware of</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Day60(6)</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>turn away</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>把脸背过去</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Day60(6)</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>come up with</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>想出、提出</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Day60(6)</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>take leave of</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>向...告别</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Day60(6)</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>break the silence</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>打破沉默</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Day60(6)</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D853"/>
+  <dimension ref="A1:D860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19199,6 +19199,160 @@
         </is>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>in the case</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>既然如此、如果那样的话</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>be left up to sb</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>被留给某人决定</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>now that</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>既然、由于</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>be to do sth</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>不可避免、注定发生</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>bring up</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>养育、抚养</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>prove oneself sth</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>显示（自己）是、向人证明（自己）是</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>the/a lack of sth</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>缺乏、匮乏、短缺</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Day61(7)</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D860"/>
+  <dimension ref="A1:D870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19353,6 +19353,226 @@
         </is>
       </c>
     </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>on account of</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>由于、因为</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>be accompanied with sth</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>伴随着....</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>drink one's health</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>为...的健康干杯</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>draw oneself up</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>伸直背部、挺直身子</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>with great pride</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>自豪地</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>be about to do sth</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>刚要做某事</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>catch sight of ab/sth</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>忽然看到某人/某物</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>a thousand</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>许许多多</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>in case</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>以防万一</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>burst into sth</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>突然...起来（尤指开始唱歌、哭、笑等）</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Day62(10)</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D870"/>
+  <dimension ref="A1:D879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19573,6 +19573,204 @@
         </is>
       </c>
     </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>wear off</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>逐渐消失、消逝</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>at the sight of</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>一看见（就）</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>make sb feel at home</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>使某人感觉宾至如归</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>to be sure</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>诚然、固然、不可否认</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>say one's prayers</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>祷告</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>arrive at a decision</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>做出决定</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>turn one's attention to sb/sth</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>将注意力转向某人/某物</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>in full operation</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>全面实行</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>get the short straw</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>被派去干苦差(俗语：抽中下下签)</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Day63(9)</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D879"/>
+  <dimension ref="A1:D887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19771,6 +19771,182 @@
         </is>
       </c>
     </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>serve sth out</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>分发、分配（食物）</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>hold on to sth</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>抓紧某物</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>at length</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>最后、终于</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>take sb off</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>将某人带走</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>far from sth</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>远非...</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>set one's mind to do sth</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>下定决心做某事</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>cut sth to the bone</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>把...削减到最低程度</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>carry out</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>实施、执行</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Day64(8)</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D887"/>
+  <dimension ref="A1:D897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19947,6 +19947,226 @@
         </is>
       </c>
     </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>stop short</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>突然停下</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>give...a look</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>看了...一眼</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>hold on to</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>紧紧抓住</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>in amazement</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>惊愕地</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>beat...upon...</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>（用...）击打...</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>look in...face</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>看着...的脸</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>mutter about</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>小声念叨关于...</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>have the goodness to...</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>劳驾；请（用于客气的请求）</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>look at.as if...</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>看着...好像...</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>there's no denying...</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>不可否认...</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Day65(10)</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D897"/>
+  <dimension ref="A1:D904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20167,6 +20167,160 @@
         </is>
       </c>
     </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>before long</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>不久、很快</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Day66(7)</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>as much...as</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>在同种程度上</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Day66(7)</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>leave sb alone</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>不去打扰某人、让某人独自呆着</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Day66(7)</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>so to speak</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>可以说</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Day66(7)</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>in floods of tears</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>泪如雨下</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Day66(7)</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>call sb away</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>把某人叫走</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Day66(7)</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>knock sb to the ground</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>把某人击倒在地</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Day66(7)</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D904"/>
+  <dimension ref="A1:D910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20321,6 +20321,138 @@
         </is>
       </c>
     </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>set sth on fire</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>放火烧、使燃烧</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Day67(6)</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>be equal to sth</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>同样的、相等的</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Day67(6)</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>in one's favor</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>有利于某人</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Day67(6)</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>call sb names</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>辱骂、谩骂</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Day67(6)</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>do sb justice</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>公平对待某人、给以公正评价</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Day67(6)</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>give way to sth</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>陷入（某种情绪）、（情感）失去控制</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Day67(6)</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D910"/>
+  <dimension ref="A1:D920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20453,6 +20453,226 @@
         </is>
       </c>
     </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>seek one's fortune</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>寻求成功致富之路、闯天下</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Day68(6)</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>make something of sb</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>获得成功、事业有成</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Day68(6)</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>set forward</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>动身、出发</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Day68(6)</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>set sb on sb</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>使某人（动物）攻击某人</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Day68(6)</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>take pity on sb</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>对...表示同情</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Day68(6)</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>every now and then</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>偶尔、不时</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Day68(6)</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>not in the least</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>一点也不</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Day69(4)</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>by no means</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>绝不、丝毫不</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Day69(4)</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>at one's heels</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>紧跟某人</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Day69(4)</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>occupy one's attention</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>占据某人的注意力</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Day69(4)</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D920"/>
+  <dimension ref="A1:D924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20673,6 +20673,94 @@
         </is>
       </c>
     </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>divide sth between A and B</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>将...分别用于</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Day70(4)</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>so + adj. + as to do sth</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>如此...以至于</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Day70(4)</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>in order that</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>为了，以便</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Day70(4)</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>but for</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>若非，要不是</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Day70(4)</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D924"/>
+  <dimension ref="A1:D929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20761,6 +20761,116 @@
         </is>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>upon my word</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>我敢发誓</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Day71(6)</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>throw a glance at</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>朝...瞥了一眼</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Day71(6)</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>by and by</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>不久、很快</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Day71(6)</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>as well</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>还、也</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Day71(6)</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>up and down</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>来回、往复</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Day71(6)</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D929"/>
+  <dimension ref="A1:D935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8972,7 +8972,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>alll the while</t>
+          <t>all the while</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -20866,6 +20866,138 @@
         </is>
       </c>
       <c r="D929" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>in consequence of sth</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>由于...的缘故</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Day72(6)</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>at length</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Day72(6)</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>occur to sb</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>（想法或主意）浮现于脑海中</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Day72(6)</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>come across</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>（偶然）遇见、发现</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Day72(6)</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>pick one's pocket</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>扒窃</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Day72(6)</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>on the point of</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>正要...之际；就要...之时</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Day72(6)</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
         <is>
           <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
         </is>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D935"/>
+  <dimension ref="A1:D939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21003,6 +21003,94 @@
         </is>
       </c>
     </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>no sooner...than</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>一...就</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Day73(4)</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>turn against sb</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>背叛某人、与...反目</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Day73(4)</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>take up</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>一齐说</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Day73(4)</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>make one's way</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>行进</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Day73(4)</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D939"/>
+  <dimension ref="A1:D944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21091,6 +21091,116 @@
         </is>
       </c>
     </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>call to mind</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>想起</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Day74(5)</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>sort of</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>有点像、好像</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Day74(5)</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>appear against sb</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>出庭控告某人</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Day74(5)</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>hold one's tongue</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>闭上嘴、保持沉默</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Day74(5)</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>take the oath</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>宣誓</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Day74(5)</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D944"/>
+  <dimension ref="A1:D956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21201,6 +21201,270 @@
         </is>
       </c>
     </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>in conclusion</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>stuff and nonsense</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>胡说八道</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>make a fool of sb</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>愚弄某人、令某人出洋相</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>for heaven's sake</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>看在上帝的份上、天哪</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>out of breath</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>上气不接下气</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>turn sb out</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>赶走、逐走</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>catch up with sb</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>抓住并惩罚（某人）</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>in a frenzy of sth</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>处于...狂乱之中</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Day75(8)</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>the same...as...</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>和...相同的...</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Day76(4)</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>seem (to be) sth</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>好像是</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Day76(4)</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>cannot help doing sth</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>（某人）情不自禁做某事</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Day76(4)</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>have got nothing to do with</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>和...没有关系</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Day76(4)</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D956"/>
+  <dimension ref="A1:D965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21465,6 +21465,204 @@
         </is>
       </c>
     </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>fix sth on sb/sth</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>集中（目光）于</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>strike one's fancy</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>对某人有吸引力</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>go through</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>经历、经受（由指苦难或艰难时期）</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>a great variety of</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>大量的、各种各样的</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>do sb good</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>（对某人）有好处</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>know not</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>（古语）不知道、不了解</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>run away</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>逃离</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>come to a stop</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>停止</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>a fit of laughter</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>一阵笑</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Day77(9)</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D965"/>
+  <dimension ref="A1:D975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21663,6 +21663,226 @@
         </is>
       </c>
     </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>afford to</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>负担得起，有能力做...</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>throw away</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>扔掉，丢弃</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>out of humor</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>心情不好</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>content oneself with sth</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>满足、满意</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>cross one's mind</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>掠过某人的脑海</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>lower oneself</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>自降身份</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>get sb into trouble</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>使自己或他人陷入困境</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>take notice of</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>意、理会</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>out of sb's reach</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>够不着，即距离比手臂长度远，不在某人的伸手范围内。</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>find out</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>查明、弄清</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Day78(10)</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D975"/>
+  <dimension ref="A1:D983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21883,6 +21883,182 @@
         </is>
       </c>
     </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>to the delight of sb</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>令某人高兴的是...</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>avoid doing sth</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>避免做某事</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>keep to sth</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>遵守（诺言）、坚持（计划）</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>in the middle of sth</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>处于某事过程中</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>seem like</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>好像、仿佛...</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>to tell the truth</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>说实话、老实说</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>as bright as a button</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>聪明活泼的</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>be seated</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>坐下、坐着</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Day79(8)</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D983"/>
+  <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22059,6 +22059,424 @@
         </is>
       </c>
     </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>by far</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>程度或数量上的巨大优势或差异</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>in a...manner</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>以...的方式</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>speak of sth</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>提起、讲述</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>call after</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>跟在...后面叫（以引起注意）</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>pay sb for sth</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>付款、付钱给（某人）</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>take sth back</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>退回（从商店里购买的货物）</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>determined to do</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>决心做</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>grow+adj.</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>逐渐变得、逐渐成为</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Day80(8)</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>occupy sb in</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>使忙于（做某事）、忙着（做某事）</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>appear to do sth</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>好像、显得</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>in time to do sth</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>及时做某事</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>critical point</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>临界点</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>one or other</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>不管哪一个</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>come in</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>参与</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>put on</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>假装、装出</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>many a sth</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>很多、许多</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>be lost upon sb</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>未得到某人注意</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>honor sb for sth</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>为某事给予表扬</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>complete with sth</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>装备有某物</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Day81(11)</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1002"/>
+  <dimension ref="A1:D1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22477,6 +22477,116 @@
         </is>
       </c>
     </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>be on one's way to</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>在...路上</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Day82(5)</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>on one's account</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>为了某人的缘故</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Day82(5)</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>none other than</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>竟然</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Day82(5)</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>twenty  times</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>很多次</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Day82(5)</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>sit up</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>深夜未眠、熬夜</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Day82(5)</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1007"/>
+  <dimension ref="A1:D1015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22587,6 +22587,182 @@
         </is>
       </c>
     </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>attach oneself to</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>缠着、和...在一起</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>without delay</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>立刻、毫不迟疑地</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>to the contrary</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>正相反的、恰恰相反的</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>struggle through</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>奋力通过</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>as good as dead</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>和死了差不多</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>might as well</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>最好还是、倒不如...</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>hold the position</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>担任职业</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>in a ruinous condition</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>破败的状态</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Day83(8)</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1015"/>
+  <dimension ref="A1:D1050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22763,6 +22763,776 @@
         </is>
       </c>
     </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>jump to one's feet</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>一跃而起</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>go through</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>翻阅</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>set sth on fire</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>把某物点燃</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>pretend to do sth</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>假装做某事</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>in desperation</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>绝望之际</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>for fear (that)</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>恐怕、生怕</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>in confusion</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>一头雾水、困窘地</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>keep back sb</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>使某人保持距离、与...保持距离</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>tear sth to pieces</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>把某物撕成碎片</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Day84(9)</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>be the worse for</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>受到...的伤害</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>in good time</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>提前、提早</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>keep clear of</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>避升、躲开</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>at stake</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>处于危险境地</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>pour out</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>倾吐、毫无保留地诉说</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>get on</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>取得成功</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Day85(6)</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>to...extent</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>在...程度上</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Day86(5)</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>conclude by doing sth</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>以做某事作为结束</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Day86(5)</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>happen to do sth</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>碰巧做某事</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Day86(5)</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>make out</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>（勉强地）辨认出</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Day86(5)</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>be keen to do sth</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>渴望做某事</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Day86(5)</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>out of consideration for sb</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>考虑到某人、出于体恤某人</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>reduce sth to sth</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>将...简化內</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>in a nutshell</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>概括的说、简要的说</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>take sb's word for</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>接受某人所说的话</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>be calculated to do sth</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>旨在做某事、用意在于</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>in spite of</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>尽管、不管</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>in search of</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>寻找某物</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>on behalf of sb</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>为了某人、因为某人</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Day87(8)</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>bid sb (to) do sth</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>告诉/请（某人做某事）</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Day88(7)</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>get the better of sb</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>打败（某人）</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Day88(7)</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>except for</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>除了</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>Day88(7)</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>in the first place</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>首先、最初</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Day88(7)</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>go about sth</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>做某事、处理某事</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Day88(7)</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>get over</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>克服（困难）</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Day88(7)</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>be on the safe side</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>为安全起见、为了稳妥</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Day88(7)</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1050"/>
+  <dimension ref="A1:D1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23533,6 +23533,270 @@
         </is>
       </c>
     </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>come about</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>发生、产生</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>take pains</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>煞费苦心</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>out of the way</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>结束、处理完</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>hold sb responsible</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>认为某人应该（为某事）负责、唯某人试问</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>cover oneself up</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>增添衣服</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>feel one's way</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>（在黑暗中）摸索着走动</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>serve to do sth</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>起作用、产生效果</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>call up sth</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>使回忆起、使想起</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Day89(8)</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>read sb's thoughts</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>猜测某人的心思</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>DAY90(4)</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>place emphasis on sth</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>强调某事、注重某物</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>DAY90(4)</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>gasp for breath</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>上气不接下气</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>DAY90(4)</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>pull away</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>快速躲开、闪避（某人）</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>DAY90(4)</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1062"/>
+  <dimension ref="A1:D1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23797,6 +23797,182 @@
         </is>
       </c>
     </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>cast a glance</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>瞅一眼</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>bring oneself to do sth</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>强迫某人做某事</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>做出决定、下定决心</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>take trouble to do sth</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>尽心尽力去做某事、费力去做某事</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>for one's own good</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>为了某人好</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>tell tales</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>打小报告</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>take one's chance</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>冒险</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>lengthen out</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>过分延长</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Day91(8)</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>《Oliver Twist 雾都孤儿（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1127"/>
+  <dimension ref="A1:D1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25227,6 +25227,2096 @@
         </is>
       </c>
     </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>做出决定、下定决心</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>Day02(7)</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>cut down</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>减少、缩减</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Day02(7)</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>out of a job</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>失业的、被解雇的</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Day02(7)</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>bring up</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>抚养、养育、教养</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Day02(7)</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>burst out</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>突然开始(做某事)</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Day02(7)</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>talk over</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>详细探讨、坦诚交谈</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Day02(7)</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>let sb/sth down</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>使失望、辜负(别人的信任或期望)</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Day02(7)</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>in vain</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>徒劳地</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Day03(5)</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>single out</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>单独挑出、特别选出</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>Day03(5)</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>on hand</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>待处理、需要办理</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>Day03(5)</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>break into sth</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>突然开始做...</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Day03(5)</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>let sb/sth down</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>使失望、辜负(别人的信任或期望)</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>Day03(5)</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>be/work to your advantage</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>对...有利</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>Day04(6)</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>think sth up</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>想出、构思出(新主意、名字等)</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Day04(6)</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>make sb/sth into sb/sth</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>把...变成</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Day04(6)</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>in a/one sense</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>在某种意义上</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Day04(6)</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>stretch sth out</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>伸出、伸开(手、脚等)</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Day04(6)</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>run through sth</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>快速穿越、迅速传遍</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Day04(6)</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>see through sb/sth</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>看透、识破</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Day05(4)</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>count one's pennies</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>关心花了多少钱</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Day05(4)</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>turn sb/sth down</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>拒绝、顶回(提议、建议或提议人)</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Day05(4)</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>help yourself to sth</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>擅自拿走、窃取</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Day05(4)</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>turn up</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>偶然出现、到来</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Day06(6)</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>cut in (on sb/sth)</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>打断(谈话)、插嘴</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Day06(6)</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>come off (sth)</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>与...分离(或分开)</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Day06(6)</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>run errands</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>跑腿、出门办事</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>Day06(6)</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>smooth sth out</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>(用手)弄平、把...弄平整</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Day06(6)</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>that's the ticket</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>所需要的东西、一切正好</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>Day06(6)</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>bark out</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>大声嚷、吼叫</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Day07(5)</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>in time</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>及时(做某事)</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Day07(5)</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>in advance (of sth)</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>预先、提前、在某事发生之前</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Day07(5)</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>have an eye for sth</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>对...有鉴赏力(或识别力、眼力)</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Day07(5)</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>not in the least</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>一点也不、丝毫不</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>Day07(5)</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>come up</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>走进、接近</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Day08(6)</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>out of breath</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>喘不过气、上气不接下气</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Day08(6)</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>be rolling (in money)</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>非常富裕、在钱里打滚</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Day08(6)</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>make time</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>腾出时间</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Day08(6)</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>move off</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>离开、离去</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Day08(6)</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>break out</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>突然开始、爆发</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Day08(6)</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>tell of</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>公布、说明</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Day09(4)</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>draw back</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>往后闪、后退</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Day09(4)</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>stop dead</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>(使)突然停止(发生或移动)</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Day09(4)</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>run into sb</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>偶然遇见、碰到(某人)</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Day09(4)</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>as though</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>似乎、仿佛、好像</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Day10(5)</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>out of the way</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>(用于否定句)奇特的、不寻常的、罕见的</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Day10(5)</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>to one's feet</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>起立、站起</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Day10(5)</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>at sb's service</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>随时可供使用(或可以帮助)</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Day10(5)</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>in need of</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>需要(某物)</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Day10(5)</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>what of it</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>(承认某事属实、想知道为何重要)那又怎么样呢、那有什么关系呢</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Day11(5)</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>as far as l can see</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>依我看</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Day11(5)</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>put up with sth/sb</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>忍受、忍耐</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Day11(5)</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>sb can (not) help (doing) sth/sb can not help but do sth</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>某人忍不住(或无法抑制)做某事、不可能避免某事</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>Day11(5)</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>be hard on sb</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>对(某人)严厉批评、对(某人)不公平</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>Day11(5)</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>reason with sb</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>和某人讲道理、规劝</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>Day12(4)</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>deny yourself</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>节制、克制</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>Day12(4)</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>have something at one's feet</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>掌握、控制</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>Day12(4)</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>stoop to sth</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>卑鄙到做…的地步、堕落到做…的地步</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Day12(4)</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>ring out</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>响亮地发出、清晰地响起</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Day13(5)</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>in any case</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>无论如何、不管怎样</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Day13(5)</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>more or less</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>或多或少、在一定程度上</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>Day13(5)</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>and (all) that</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>等等、以及诸如此类的事物</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>Day13(5)</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>break off</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>突然停止说话</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>Day14(5)</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>catch/touch sb on the raw</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>(说话或做事)触及某人的痛处</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Day14(5)</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>sell out</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>卖光</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Day14(5)</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>on someonne's account</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>为(某人)着想</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Day14(5)</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>run across sb/sth</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>偶然遇见(或看到)</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Day14(5)</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>run into</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>偶然碰见</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Day15(4)</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>come up</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>被提到、被提起</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Day15(4)</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>set off</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>出发、启程、动身</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Day15(4)</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>at (…) intervals</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>每隔…时间、间或、不时</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>Day15(4)</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>off with sth</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>(命令某人)去掉、除去</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>Day16(4)</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>be sb's affair</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>是某人自己的事</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>Day16(4)</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>burst into sth</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>突然爆发</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Day16(4)</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>on no account</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>决不、绝对不、切莫</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>Day16(4)</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>come to rest</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>终于停止移动</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Day17(4)</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>on board</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>在船上(或飞机上、火车上)</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Day17(4)</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>in spite of sth</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>不管、尽管</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Day17(4)</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>by/at someone's side</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>在某人身边(尤指给某人安慰或精神支持)</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>Day17(4)</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>make use of</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>使用、利用</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>Day18(3)</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>come up to sth</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>达到(一般或必要的标准)</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Day18(3)</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>embark on/upon sth</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>n 从事、着手、开始(新的或艰难的事情)</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Day18(3)</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>call a halt</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>要求停止、命令停止</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>Day19(5)</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>get over</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>(从病痛，苦恼，惊吓中)恢复过来</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Day19(5)</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>make a/the difference</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>有作用、有影响</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Day19(5)</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>do someone/thing down</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>(多指用卑鄙手段)打败、压倒、制服、欺骗</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Day19(5)</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>settle (down) to sth</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>开始认真对待、定下心来做</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Day19(5)</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>in return</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>作为交换、作为回报</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Day20(4)</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>at large</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>普遍地、全体地</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>Day20(4)</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>run into sb/sth</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>撞上</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>Day20(4)</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>sea legs</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>在行使的船上保持平衡、不晕船的本领</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>Day20(4)</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>cull sth from sth</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>选出、挑出、采集</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Day21(5)</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>and (all) that</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>等等、以及诸如此类的事物</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Day21(5)</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>come over (to...)(from...)</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>(通常远距离地)从...到、从...来</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>Day21(5)</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>come across sb/sth</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>(偶然)遇见、碰见、发现</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>Day21(5)</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>run into</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>偶然碰见</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>Day21(5)</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1222"/>
+  <dimension ref="A1:D1264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27317,6 +27317,930 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>a close/near thing</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>几乎发生的事</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>Day22(4)</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>stop dead</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>突然停止(运动、说话、动作)</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>Day22(4)</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>in sight</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>看得见的</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Day22(4)</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>confide in sb</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>向(可信赖的人)透露秘密(或个人隐私)</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Day22(4)</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>one's idea of sth</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>(某人)心目中的...</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Day23(4)</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>screw up one's eyes/face</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>眯起眼睛/扭歪脸</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Day23(4)</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>come across sb/sth</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>(偶然)遇见、碰见、发现</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Day23(4)</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>end in sth</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>以...結局、末端是</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Day23(4)</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>stand out (from/against sth)</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>显眼、突出</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Day24(4)</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>get over sth</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>解决、克服、控制</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Day24(4)</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>catch (sb) up</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>赶上(某人)</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Day24(4)</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>deal with sth</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>关于、涉及、论述</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Day24(4)</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>under one's breath</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>低声地、経声地</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Day25(5)</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>make a night of it</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>痛快地玩一晚上、决定花整晚做愉快的事情</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Day25(5)</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>do sb wrong</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>冤枉某人、不公平地对待某人</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Day25(5)</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>stick together</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>相互支持、团结一致</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>Day25(5)</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>make a fool of oneself</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>出丑、出洋相</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>Day25(5)</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>get (a) hold of sb</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>找到某人、联系上某人</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>Day26(3)</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>take charge</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>掌控、负责</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Day26(3)</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>pull sth on</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>(迅速地)穿上、戴上</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Day26(3)</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>make of sth/sb</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>看待、理解</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Day27(1)</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>in sb's hands</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>受某人照料、受某人控制</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Day28(5)</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>at sb's disposal</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>任某人处理、供某人任意使用、由某人自行支配</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Day28(5)</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>kind of</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>稍微、有几分、有点儿</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Day28(5)</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>so to speak</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>姑妄言之、可以说</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Day28(5)</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>to death</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>至死、直到死亡</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Day28(5)</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>out of sight</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>看不见了</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Day29(4)</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>turn in</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>上床睡觉</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Day29(4)</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>bring sb/sth along</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>带上、带来</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>Day29(4)</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>找到(某人)、得到</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>Day29(4)</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>there, there!</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>(劝说小孩不要啼哭或沮丧)好了、好了</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>Day30(4)</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>do sb/oneself in</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>杀死、干掉(某人)、自杀</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>Day30(4)</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>play the market</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>股票投机</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>Day30(4)</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>get it in the neck</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>受到严厉谴责(或惩罚)</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>Day30(4)</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>put something out</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>关掉(灯)</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>Day31(4)</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>I take it</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>我自认为、我以为、我猜测</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>Day31(4)</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>cry out</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>(由于害怕、震惊、疼痛等而)大声喊叫</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>Day31(4)</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>come to sb</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>被想出</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>Day31(4)</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>as regards</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>关于、就...而论、在...方面</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Day32(4)</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>make sense</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>解释得通、有道理</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Day32(4)</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>break off</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>停顿、中断</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Day32(4)</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>through and through</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>完全、彻底</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Day32(4)</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/English Phrase.xlsx
+++ b/English Phrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1264"/>
+  <dimension ref="A1:D1299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28241,6 +28241,776 @@
         </is>
       </c>
     </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>pore over sth</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>仔细打量、审视、认真研读、审阅</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Day34(3)</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>call on/upon sb/sth</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>短暂访问</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Day34(3)</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>be plain/clear sailing</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>顺利、一帆风顺</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Day34(3)</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>the job/matter in hand</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>当前重要的事务</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Day35(3)</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>for certain</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>肯定、确定、无疑</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Day35(3)</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>put out</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>熄灭、扑灭</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Day35(3)</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>doze off</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>(尤指在日间)打瞌睡、打盹儿</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>Day36(4)</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>see to sth</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>办理、照管、料理</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Day36(4)</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>clear something up</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>解决、解释、澄清</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Day37(4)</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>sb's labours</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>某人的辛勤劳动</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Day37(4)</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>fit in</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>(东西)与...一致、符合</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Day37(4)</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>all the same</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>尽管如此</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Day37(4)</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>take no notice</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>不注意</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>Day38(3)</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>at a loss</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>不知所措</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Day38(3)</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>burst out</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>突然说出、大声喊出</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Day38(3)</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>go through with sth</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>完成(或做完)艰难(或令人不快)的事</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>Day39(5)</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>make up one's mind / make one's mind up</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>做出决定、下定决心</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>Day39(5)</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>I expect</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>我认为、我猜想</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Day39(5)</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>quite the contrary</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>完全相反、完全不同、根本不是</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Day39(5)</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>in question</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>讨论(或议论)中的</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Day39(5)</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>at once</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>立即、马上</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Day40(5)</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>come out</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>被获知、为人所知</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Day40(5)</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>just the same</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>仍然、依然、照样</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Day40(5)</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>on the alert</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>警惕着</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Day40(5)</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>to the extent of</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>(表示强调)到...的地步、到...的程度</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Day40(5)</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>suit someone's book</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>対...方便(或合适)、合...的意</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Day41(3)</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>all out</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>尽力、全力以赴</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Day41(3)</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>travel light</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>轻装旅行</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Day41(3)</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>in the extreme</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>极端、极度、非常</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>Day42(3)</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>what/where/who/why/etc. the devil...</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>(用于问句表示烦恼或吃惊）究竟...、到底...</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>Day42(3)</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>off sb's feed</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>没胃口</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Day42(3)</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>a good/great deal</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>很</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Day43(4)</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>come across</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>偶然遇见、偶然发现</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>Day43(4)</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>in broad daylight</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>大白天、在光天化日之下</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>Day43(4)</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>odds and ends</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>琐碎物品、零星杂物</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>Day43(4)</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>《Death on the Nile /Agatha Christie 尼罗河上的惨案/阿加莎·克里斯蒂》</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
